--- a/xlsx/旧金山_intext.xlsx
+++ b/xlsx/旧金山_intext.xlsx
@@ -29,7 +29,7 @@
     <t>圣弗朗西斯科 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_旧金山</t>
+    <t>体育运动_体育运动_种族歧视_旧金山</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Consolidated_city-county</t>
@@ -5307,7 +5307,7 @@
         <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
